--- a/EXCEL Output/Assignment7.xlsx
+++ b/EXCEL Output/Assignment7.xlsx
@@ -48,8 +48,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -127,41 +133,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1" headerRowCount="1">
-  <autoFilter ref="A1:C1"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Measure Name"/>
-    <tableColumn id="2" name="Measure Expression"/>
-    <tableColumn id="3" name="Measure Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:D5" headerRowCount="1">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:F6" headerRowCount="1">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Relationships" displayName="Relationships" ref="A1:G1" headerRowCount="1">
-  <autoFilter ref="A1:G1"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="From Table"/>
-    <tableColumn id="2" name="From Column"/>
-    <tableColumn id="3" name="To Table"/>
-    <tableColumn id="4" name="To Column"/>
-    <tableColumn id="5" name="State"/>
-    <tableColumn id="6" name="Direction"/>
-    <tableColumn id="7" name="Cardinality"/>
+    <tableColumn id="5" name="Table Query"/>
+    <tableColumn id="6" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -451,41 +431,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40.8" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Measure Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Measure Expression</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Measure Description</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No measures present in this file</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -495,113 +465,244 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Table No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Table Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Table Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Table Source</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Table Query</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Modification</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GDP (2001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Excel.Workbook</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP (2001-2010).xlsx"</t>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Indian Administrative Region</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Csv.Document</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Indian Administrative Region.csv"),[Delimiter="	"</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(Source,{{"Column1", type text}, {"Column2", type text}}),
+    #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"Nominal GDP(INR, ?)", type text}, {"Zonal councils", type text}}),
+    #"Renamed Columns" = Table.RenameColumns(#"Changed Type1",{{"Zonal councils", "Zone"}, {"Nominal GDP(INR, ?)", "Nominal GDP"}}),
+    #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns","?","",Replacer.ReplaceText,{"Nominal GDP"}),
+    #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value"," lakh crore","",Replacer.ReplaceText,{"Nominal GDP"}),
+    #"Changed Type2" = Table.TransformColumnTypes(#"Replaced Value1",{{"Nominal GDP", Currency.Type}})
+in
+    #"Changed Type2"</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate (2002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>GDP (2001</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP (2001-2010).xlsx"</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GDP20012010_Table,{{"State/union territory", type text}, {"2001", type any}, {"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}}),
+    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Changed Type", {"State/union territory"}, "Attribute", "Value"),
+    #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP (2011-2014)"}),
+    #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
+    #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "GDP"}}),
+    #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"GDP", Currency.Type}}),
+    #"Replaced Errors" = Table.ReplaceErrorValues(#"Changed Type2", {{"GDP", 0}}),
+    #"Merged Queries" = Table.NestedJoin(#"Replaced Errors", {"State/union territory", "Year"}, #"GDP Growth Rate (2002-2014)", {"State/union territory", "Year"}, "GDP Growth Rate (2002-2014)", JoinKind.LeftOuter),
+    #"Expanded GDP Growth Rate (2002-2014)" = Table.ExpandTableColumn(#"Merged Queries", "GDP Growth Rate (2002-2014)", {"State/union territory", "Year", "Growth Rate(%)"}, {"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year", "GDP Growth Rate (2002-2014).Growth Rate(%)"}),
+    #"Removed Columns" = Table.RemoveColumns(#"Expanded GDP Growth Rate (2002-2014)",{"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year"}),
+    #"Renamed Columns2" = Table.RenameColumns(#"Removed Columns",{{"GDP Growth Rate (2002-2014).Growth Rate(%)", "Growth Rate(%)"}, {"State/union territory", "State"}}),
+    #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns2",null,0,Replacer.ReplaceValue,{"Growth Rate(%)"}),
+    #"Changed Type3" = Table.TransformColumnTypes(#"Replaced Value",{{"Growth Rate(%)", Percentage.Type}})
+in
+    #"Changed Type3"</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate (2011</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate (2002</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP Growth Rate (2011-2014).xlsx"</t>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP (2001-2010).xlsx"</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GrowthRate20022010_Table,{{"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}, {"State/union territory", type text}}),
+    #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2002"}),
+    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors", {"State/union territory"}, "Attribute", "Value"),
+    #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP Growth Rate (2011-2014)"}),
+    #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
+    #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "Growth Rate(%)"}}),
+    #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"Growth Rate(%)", Percentage.Type}})
+in
+    #"Changed Type2"</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate (2011</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Excel.Workbook</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP Growth Rate (2011-2014).xlsx"</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GrowthRate20112014_Table,{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}}),
+    #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2011"}),
+    #"Removed Errors1" = Table.RemoveRowsWithErrors(#"Removed Errors", {"2013"}),
+    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors1", {"State/union territory"}, "Attribute", "Value")
+in
+    #"Unpivoted Other Columns"</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>GDP (2011</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Nominal GDP (2011-2014).xlsx"</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GDP20112014_Sheet,{{"Column1", type text}, {"Column2", type any}, {"Column3", type any}, {"Column4", type any}, {"Column5", type any}, {"Column6", type any}}),
+    #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}, {"Column6", type any}}),
+    #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"Column6"}),
+    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Columns", {"State/union territory"}, "Attribute", "Value")
+in
+    #"Unpivoted Other Columns"</t>
         </is>
       </c>
     </row>
@@ -614,60 +715,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="46.8" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>From Table</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>From Column</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>To Table</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>To Column</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Direction</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Cardinality</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No relationships present in this file</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/EXCEL Output/Assignment7.xlsx
+++ b/EXCEL Output/Assignment7.xlsx
@@ -539,15 +539,14 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(Source,{{"Column1", type text}, {"Column2", type text}}),
-    #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"Nominal GDP(INR, ?)", type text}, {"Zonal councils", type text}}),
-    #"Renamed Columns" = Table.RenameColumns(#"Changed Type1",{{"Zonal councils", "Zone"}, {"Nominal GDP(INR, ?)", "Nominal GDP"}}),
-    #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns","?","",Replacer.ReplaceText,{"Nominal GDP"}),
-    #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value"," lakh crore","",Replacer.ReplaceText,{"Nominal GDP"}),
-    #"Changed Type2" = Table.TransformColumnTypes(#"Replaced Value1",{{"Nominal GDP", Currency.Type}})
-in
-    #"Changed Type2"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(Source,{{"Column1", type text}, {"Column2", type text}}),
+2. #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
+3. #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"Nominal GDP(INR, ?)", type text}, {"Zonal councils", type text}}),
+4. #"Renamed Columns" = Table.RenameColumns(#"Changed Type1",{{"Zonal councils", "Zone"}, {"Nominal GDP(INR, ?)", "Nominal GDP"}}),
+5. #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns","?","",Replacer.ReplaceText,{"Nominal GDP"}),
+6. #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value"," lakh crore","",Replacer.ReplaceText,{"Nominal GDP"}),
+7. #"Changed Type2" = Table.TransformColumnTypes(#"Replaced Value1",{{"Nominal GDP", Currency.Type}})
+</t>
         </is>
       </c>
     </row>
@@ -577,22 +576,21 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GDP20012010_Table,{{"State/union territory", type text}, {"2001", type any}, {"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}}),
-    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Changed Type", {"State/union territory"}, "Attribute", "Value"),
-    #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP (2011-2014)"}),
-    #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
-    #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "GDP"}}),
-    #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"GDP", Currency.Type}}),
-    #"Replaced Errors" = Table.ReplaceErrorValues(#"Changed Type2", {{"GDP", 0}}),
-    #"Merged Queries" = Table.NestedJoin(#"Replaced Errors", {"State/union territory", "Year"}, #"GDP Growth Rate (2002-2014)", {"State/union territory", "Year"}, "GDP Growth Rate (2002-2014)", JoinKind.LeftOuter),
-    #"Expanded GDP Growth Rate (2002-2014)" = Table.ExpandTableColumn(#"Merged Queries", "GDP Growth Rate (2002-2014)", {"State/union territory", "Year", "Growth Rate(%)"}, {"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year", "GDP Growth Rate (2002-2014).Growth Rate(%)"}),
-    #"Removed Columns" = Table.RemoveColumns(#"Expanded GDP Growth Rate (2002-2014)",{"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year"}),
-    #"Renamed Columns2" = Table.RenameColumns(#"Removed Columns",{{"GDP Growth Rate (2002-2014).Growth Rate(%)", "Growth Rate(%)"}, {"State/union territory", "State"}}),
-    #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns2",null,0,Replacer.ReplaceValue,{"Growth Rate(%)"}),
-    #"Changed Type3" = Table.TransformColumnTypes(#"Replaced Value",{{"Growth Rate(%)", Percentage.Type}})
-in
-    #"Changed Type3"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GDP20012010_Table,{{"State/union territory", type text}, {"2001", type any}, {"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}}),
+2. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Changed Type", {"State/union territory"}, "Attribute", "Value"),
+3. #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP (2011-2014)"}),
+4. #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
+5. #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
+6. #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "GDP"}}),
+7. #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"GDP", Currency.Type}}),
+8. #"Replaced Errors" = Table.ReplaceErrorValues(#"Changed Type2", {{"GDP", 0}}),
+9. #"Merged Queries" = Table.NestedJoin(#"Replaced Errors", {"State/union territory", "Year"}, #"GDP Growth Rate (2002-2014)", {"State/union territory", "Year"}, "GDP Growth Rate (2002-2014)", JoinKind.LeftOuter),
+10. #"Expanded GDP Growth Rate (2002-2014)" = Table.ExpandTableColumn(#"Merged Queries", "GDP Growth Rate (2002-2014)", {"State/union territory", "Year", "Growth Rate(%)"}, {"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year", "GDP Growth Rate (2002-2014).Growth Rate(%)"}),
+11. #"Removed Columns" = Table.RemoveColumns(#"Expanded GDP Growth Rate (2002-2014)",{"GDP Growth Rate (2002-2014).State/union territory", "GDP Growth Rate (2002-2014).Year"}),
+12. #"Renamed Columns2" = Table.RenameColumns(#"Removed Columns",{{"GDP Growth Rate (2002-2014).Growth Rate(%)", "Growth Rate(%)"}, {"State/union territory", "State"}}),
+13. #"Replaced Value" = Table.ReplaceValue(#"Renamed Columns2",null,0,Replacer.ReplaceValue,{"Growth Rate(%)"}),
+14. #"Changed Type3" = Table.TransformColumnTypes(#"Replaced Value",{{"Growth Rate(%)", Percentage.Type}})
+</t>
         </is>
       </c>
     </row>
@@ -622,16 +620,15 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GrowthRate20022010_Table,{{"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}, {"State/union territory", type text}}),
-    #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2002"}),
-    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors", {"State/union territory"}, "Attribute", "Value"),
-    #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP Growth Rate (2011-2014)"}),
-    #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
-    #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "Growth Rate(%)"}}),
-    #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"Growth Rate(%)", Percentage.Type}})
-in
-    #"Changed Type2"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GrowthRate20022010_Table,{{"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}, {"State/union territory", type text}}),
+2. #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2002"}),
+3. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors", {"State/union territory"}, "Attribute", "Value"),
+4. #"Appended Query" = Table.Combine({#"Unpivoted Other Columns", #"GDP Growth Rate (2011-2014)"}),
+5. #"Renamed Columns" = Table.RenameColumns(#"Appended Query",{{"Attribute", "Year"}}),
+6. #"Changed Type1" = Table.TransformColumnTypes(#"Renamed Columns",{{"Year", type date}}),
+7. #"Renamed Columns1" = Table.RenameColumns(#"Changed Type1",{{"Value", "Growth Rate(%)"}}),
+8. #"Changed Type2" = Table.TransformColumnTypes(#"Renamed Columns1",{{"Growth Rate(%)", Percentage.Type}})
+</t>
         </is>
       </c>
     </row>
@@ -661,12 +658,11 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GrowthRate20112014_Table,{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}}),
-    #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2011"}),
-    #"Removed Errors1" = Table.RemoveRowsWithErrors(#"Removed Errors", {"2013"}),
-    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors1", {"State/union territory"}, "Attribute", "Value")
-in
-    #"Unpivoted Other Columns"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GrowthRate20112014_Table,{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}}),
+2. #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2011"}),
+3. #"Removed Errors1" = Table.RemoveRowsWithErrors(#"Removed Errors", {"2013"}),
+4. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors1", {"State/union territory"}, "Attribute", "Value")
+</t>
         </is>
       </c>
     </row>
@@ -696,13 +692,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(GDP20112014_Sheet,{{"Column1", type text}, {"Column2", type any}, {"Column3", type any}, {"Column4", type any}, {"Column5", type any}, {"Column6", type any}}),
-    #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}, {"Column6", type any}}),
-    #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"Column6"}),
-    #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Columns", {"State/union territory"}, "Attribute", "Value")
-in
-    #"Unpivoted Other Columns"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GDP20112014_Sheet,{{"Column1", type text}, {"Column2", type any}, {"Column3", type any}, {"Column4", type any}, {"Column5", type any}, {"Column6", type any}}),
+2. #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
+3. #"Changed Type1" = Table.TransformColumnTypes(#"Promoted Headers",{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}, {"Column6", type any}}),
+4. #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"Column6"}),
+5. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Columns", {"State/union territory"}, "Attribute", "Value")
+</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment7.xlsx
+++ b/EXCEL Output/Assignment7.xlsx
@@ -133,15 +133,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:F6" headerRowCount="1">
-  <autoFilter ref="A1:F6"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:G6" headerRowCount="1">
+  <autoFilter ref="A1:G6"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-    <tableColumn id="5" name="Table Query"/>
-    <tableColumn id="6" name="Modification"/>
+    <tableColumn id="5" name="Original Table Name"/>
+    <tableColumn id="6" name="Table Query"/>
+    <tableColumn id="7" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +476,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="80" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,10 +506,15 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>Original Table Name</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>Table Query</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Modification</t>
         </is>
@@ -534,10 +541,15 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
+          <t>Indian Administrative Region</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(Source,{{"Column1", type text}, {"Column2", type text}}),
 2. #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),
@@ -571,10 +583,15 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
+          <t>GDP20012010_Table</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GDP20012010_Table,{{"State/union territory", type text}, {"2001", type any}, {"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}}),
 2. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Changed Type", {"State/union territory"}, "Attribute", "Value"),
@@ -615,10 +632,15 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>GrowthRate20022010_Table</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GrowthRate20022010_Table,{{"2002", type any}, {"2003", type any}, {"2004", type any}, {"2005", type any}, {"2006", type any}, {"2007", type any}, {"2008", type any}, {"2009", type any}, {"2010", type any}, {"State/union territory", type text}}),
 2. #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2002"}),
@@ -653,10 +675,15 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>GrowthRate20112014_Table</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GrowthRate20112014_Table,{{"State/union territory", type text}, {"2011", type any}, {"2012", type any}, {"2013", type any}, {"2014", type any}}),
 2. #"Removed Errors" = Table.RemoveRowsWithErrors(#"Changed Type", {"2011"}),
@@ -687,10 +714,15 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>GDP20112014_Sheet</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(GDP20112014_Sheet,{{"Column1", type text}, {"Column2", type any}, {"Column3", type any}, {"Column4", type any}, {"Column5", type any}, {"Column6", type any}}),
 2. #"Promoted Headers" = Table.PromoteHeaders(#"Changed Type", [PromoteAllScalars=true]),

--- a/EXCEL Output/Assignment7.xlsx
+++ b/EXCEL Output/Assignment7.xlsx
@@ -133,9 +133,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:H6" headerRowCount="1">
+  <autoFilter ref="A1:H6"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
@@ -143,6 +143,7 @@
     <tableColumn id="5" name="Original Table Name"/>
     <tableColumn id="6" name="Table Query"/>
     <tableColumn id="7" name="Modification"/>
+    <tableColumn id="8" name="Modification Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +482,7 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -519,6 +521,11 @@
           <t>Modification</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Modification Description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -536,7 +543,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Indian Administrative Region.csv"),[Delimiter="	"</t>
+          <t>"C:\Users\MAQ\Downloads\Problem Set 7\Problem Set 7\Gross Domestic Product\Indian Administrative Region.csv"</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -559,6 +566,11 @@
 6. #"Replaced Value1" = Table.ReplaceValue(#"Replaced Value"," lakh crore","",Replacer.ReplaceText,{"Nominal GDP"}),
 7. #"Changed Type2" = Table.TransformColumnTypes(#"Replaced Value1",{{"Nominal GDP", Currency.Type}})
 </t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>The above code is changing the data stored in a table originating from a "Source". It is transforming the types for two columns ("Column1" and "Column2"), renaming two columns ("Zonal councils" and "Nominal GDP(INR)?"), and replacing the unspecified character "?" with an empty string. It then changes the data type of the "Nominal GDP" column to currency.</t>
         </is>
       </c>
     </row>
@@ -610,6 +622,11 @@
 </t>
         </is>
       </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>This code is taking information from a source called "GDP20012010", and reorganizing and restructuring it in a table format. It is then taking the information from that table and changing the type of certain columns, unpivoting other columns, appending queries, renaming columns, and replacing errors. The end result is a table that has been modified to include growth rate percentages for each year, and the data has been expressed in percentage type.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -653,6 +670,11 @@
 </t>
         </is>
       </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>This code is used to analyze the growth rate between 2002 and 2010 of each state in someone's data. It changes the data type of specified columns, removes rows with erroneous data, unpivots certain columns, appends the query, renames the columns, converts them to date type and percentage type respectively, and then outputs the results.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -690,6 +712,11 @@
 3. #"Removed Errors1" = Table.RemoveRowsWithErrors(#"Removed Errors", {"2013"}),
 4. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Errors1", {"State/union territory"}, "Attribute", "Value")
 </t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>This code is for organizing data about the growth rate in different states or union territories from 2011-2014. It converts the data into a data set that lists each state or union territory along with their individual growth rates for each of the four years. It also removes any errors from the data set before organizing it.</t>
         </is>
       </c>
     </row>
@@ -730,6 +757,11 @@
 4. #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"Column6"}),
 5. #"Unpivoted Other Columns" = Table.UnpivotOtherColumns(#"Removed Columns", {"State/union territory"}, "Attribute", "Value")
 </t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>This code is transforming a table of six columns containing the GDP (gross domestic product) from 2011 to 2014 for different states and union territories into a table with only three columns. The original table columns have been changed to either text or "any" data types and any unnecessary columns have been removed. The new table has just a "State/union territory" column, an "Attribute" column for the years 2011-2014, and a "Value" column for the associated GDP data for each state or union territory for each of the years.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment7.xlsx
+++ b/EXCEL Output/Assignment7.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>The above code is changing the data stored in a table originating from a "Source". It is transforming the types for two columns ("Column1" and "Column2"), renaming two columns ("Zonal councils" and "Nominal GDP(INR)?"), and replacing the unspecified character "?" with an empty string. It then changes the data type of the "Nominal GDP" column to currency.</t>
+          <t>This code is performing various transformations on a table. The first transformation is to change the data type of the columns "Column1" and "Column2" to text. Then, the code promotes the headers of the table so that each column is named something specific. The data type of a column named "Nominal GDP(INR, ?)" is then changed to text and the column is renamed to "Nominal GDP". The code then replaces any occurrence of the character "?" with an empty space in the "Nominal GDP" column. Then, the text " lakh crore" is replaced with an empty space in the same column. Finally, the data type of the "Nominal GDP" column is changed to currency.</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>This code is taking information from a source called "GDP20012010", and reorganizing and restructuring it in a table format. It is then taking the information from that table and changing the type of certain columns, unpivoting other columns, appending queries, renaming columns, and replacing errors. The end result is a table that has been modified to include growth rate percentages for each year, and the data has been expressed in percentage type.</t>
+          <t>This statement retrieves a list of Gross Domestic Product (GDP) totals from 2001 to 2010 and combines it with another table of GDP growth rate from 2002 to 2014 for different states or union territories. It then renames columns, changes their data types from text to dates, currency, and percentage, replaces any errors with 0, and merges the two tables together. Finally, it deletes unnecessary columns and finishes by converting the GDP growth rate data to a percentage type. The end result is a table of GDP totals and growth rates for different states or union territories from 2001 to 2010.</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>This code is used to analyze the growth rate between 2002 and 2010 of each state in someone's data. It changes the data type of specified columns, removes rows with erroneous data, unpivots certain columns, appends the query, renames the columns, converts them to date type and percentage type respectively, and then outputs the results.</t>
+          <t>This code is transforming a table of growth rate data from 2002-2010. It is changing the data type so that percentages are read as such, the columns are renamed to accurately reflect the data and errors are removed. The end result is the table of growth rate data with the data types, column names and errors removed.</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>This code is for organizing data about the growth rate in different states or union territories from 2011-2014. It converts the data into a data set that lists each state or union territory along with their individual growth rates for each of the four years. It also removes any errors from the data set before organizing it.</t>
+          <t>This is a set of code that uses a program to organize data in a specific way. The data is about the growth rate of each state or union territory from 2011 to 2014. The code changes the data types of each state or union territory from 2011-2014 to text and any, removes any errors from the data set, and then unpivots all the columns except for the state or union territory, so that it can be organized in a more useful way.</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>This code is transforming a table of six columns containing the GDP (gross domestic product) from 2011 to 2014 for different states and union territories into a table with only three columns. The original table columns have been changed to either text or "any" data types and any unnecessary columns have been removed. The new table has just a "State/union territory" column, an "Attribute" column for the years 2011-2014, and a "Value" column for the associated GDP data for each state or union territory for each of the years.</t>
+          <t>This code is manipulating a table from a source called "GDP20112014 Sheet". It is changing the types of the columns, promoting the headers, removing an unnecessary column, and then finally unpivoting the other columns (converting them from columns to rows). It is making it easier to work with the table so that it can be used for the desired task.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment7.xlsx
+++ b/EXCEL Output/Assignment7.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>This code is performing various transformations on a table. The first transformation is to change the data type of the columns "Column1" and "Column2" to text. Then, the code promotes the headers of the table so that each column is named something specific. The data type of a column named "Nominal GDP(INR, ?)" is then changed to text and the column is renamed to "Nominal GDP". The code then replaces any occurrence of the character "?" with an empty space in the "Nominal GDP" column. Then, the text " lakh crore" is replaced with an empty space in the same column. Finally, the data type of the "Nominal GDP" column is changed to currency.</t>
+          <t>This statement is used to change the types of certain columns in a table, rename columns, remove "?"s and "lakh crore"s from a particular column, and then finally change the type of the column to "currency". The end result of this statement is a table with two columns, labeled "Zone" and "Nominal GDP", with the type of "Nominal GDP" being changed to "currency".</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>This statement retrieves a list of Gross Domestic Product (GDP) totals from 2001 to 2010 and combines it with another table of GDP growth rate from 2002 to 2014 for different states or union territories. It then renames columns, changes their data types from text to dates, currency, and percentage, replaces any errors with 0, and merges the two tables together. Finally, it deletes unnecessary columns and finishes by converting the GDP growth rate data to a percentage type. The end result is a table of GDP totals and growth rates for different states or union territories from 2001 to 2010.</t>
+          <t>This code grabs data from a table, specifically related to GDP from 2001 to 2010 for each state/union territory. It then changes the data types for all the years, unpivots some of the rows, and combines two tables. It then renames columns, transforms data types from date to currency, replaces error values, joins two tables, and expands a table column. It then removes certain columns, renames the remaining columns, replaces other values, and changes the data type one final time. All of this is done in order to get a table (#"Changed Type3") that shows the GDP and growth rate for each state/union territory from 2001 to 2010.</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>This code is transforming a table of growth rate data from 2002-2010. It is changing the data type so that percentages are read as such, the columns are renamed to accurately reflect the data and errors are removed. The end result is the table of growth rate data with the data types, column names and errors removed.</t>
+          <t>This process takes data about the growth rate of Indian states or union territories between 2002 and 2010 and formats it so that it can be used. It changes the types of the data, removes any errors, unpivots the data, appends a query, renames the columns, changes the types of the data, and then changes the type of the data to a percentage type.</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>This is a set of code that uses a program to organize data in a specific way. The data is about the growth rate of each state or union territory from 2011 to 2014. The code changes the data types of each state or union territory from 2011-2014 to text and any, removes any errors from the data set, and then unpivots all the columns except for the state or union territory, so that it can be organized in a more useful way.</t>
+          <t>This expression is manipulating a data table about growth rates in states and union territories in India between 2011 and 2014. It changes the data type of all columns to a type that can be read and processed by the computer, removes any rows in the table that include errors, and then unpivots other columns (except the one containing the state names) to make the data easier to work with.</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>This code is manipulating a table from a source called "GDP20112014 Sheet". It is changing the types of the columns, promoting the headers, removing an unnecessary column, and then finally unpivoting the other columns (converting them from columns to rows). It is making it easier to work with the table so that it can be used for the desired task.</t>
+          <t>This statement does the following: It imports data from a sheet called "GDP20112014" and sets the type of each column to the appropriate data type. It then promotes the headers of the columns. It changes the type of the "State/Union territory" column to be of type Text. It then removes the Column6, and lastly, it takes all the remaining columns, "State/Union territory" and all the years, and it changes them into two columns, one with the names of the states/union territories, and another one with the values of their GDP in those years.</t>
         </is>
       </c>
     </row>
